--- a/artfynd/A 25300-2023.xlsx
+++ b/artfynd/A 25300-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112501612</v>
+        <v>112501550</v>
       </c>
       <c r="B2" t="n">
-        <v>88180</v>
+        <v>90814</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6276</v>
+        <v>4364</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>555509</v>
+        <v>555570</v>
       </c>
       <c r="R2" t="n">
-        <v>7010772</v>
+        <v>7010957</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -786,10 +786,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112501614</v>
+        <v>112501603</v>
       </c>
       <c r="B3" t="n">
-        <v>90837</v>
+        <v>90857</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -802,21 +802,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5966</v>
+        <v>5448</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -826,10 +826,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>555528</v>
+        <v>555463</v>
       </c>
       <c r="R3" t="n">
-        <v>7011175</v>
+        <v>7011534</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -892,10 +892,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112501596</v>
+        <v>112501607</v>
       </c>
       <c r="B4" t="n">
-        <v>90837</v>
+        <v>90858</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -908,21 +908,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5966</v>
+        <v>5449</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -932,10 +932,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>555402</v>
+        <v>555513</v>
       </c>
       <c r="R4" t="n">
-        <v>7011030</v>
+        <v>7010763</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -998,10 +998,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112501605</v>
+        <v>112501583</v>
       </c>
       <c r="B5" t="n">
-        <v>90808</v>
+        <v>90830</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1014,21 +1014,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1038,10 +1038,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>555511</v>
+        <v>555598</v>
       </c>
       <c r="R5" t="n">
-        <v>7011505</v>
+        <v>7010805</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1104,10 +1104,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112501584</v>
+        <v>112501569</v>
       </c>
       <c r="B6" t="n">
-        <v>56430</v>
+        <v>90808</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1120,42 +1120,34 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>4362</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Mossahässan/Färsån, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>555459</v>
+        <v>555402</v>
       </c>
       <c r="R6" t="n">
-        <v>7011382</v>
+        <v>7010819</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1188,11 +1180,6 @@
       <c r="AA6" t="inlineStr">
         <is>
           <t>2023-10-02</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Hack</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1223,10 +1210,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112501588</v>
+        <v>112501614</v>
       </c>
       <c r="B7" t="n">
-        <v>78242</v>
+        <v>90837</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1239,21 +1226,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6453</v>
+        <v>5966</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1263,10 +1250,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>555451</v>
+        <v>555528</v>
       </c>
       <c r="R7" t="n">
-        <v>7011470</v>
+        <v>7011175</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1329,10 +1316,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112501591</v>
+        <v>112501582</v>
       </c>
       <c r="B8" t="n">
-        <v>88180</v>
+        <v>78713</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1341,25 +1328,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6276</v>
+        <v>6458</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1369,10 +1356,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>555526</v>
+        <v>555574</v>
       </c>
       <c r="R8" t="n">
-        <v>7010762</v>
+        <v>7011068</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1415,6 +1402,16 @@
       </c>
       <c r="AG8" t="b">
         <v>0</v>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>Sälg</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>Sälg</t>
+        </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
@@ -1435,10 +1432,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112501598</v>
+        <v>112501575</v>
       </c>
       <c r="B9" t="n">
-        <v>90806</v>
+        <v>77650</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1451,21 +1448,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4361</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1475,10 +1472,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>555503</v>
+        <v>555531</v>
       </c>
       <c r="R9" t="n">
-        <v>7011445</v>
+        <v>7011013</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1521,6 +1518,16 @@
       </c>
       <c r="AG9" t="b">
         <v>0</v>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>Tall</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>Tall</t>
+        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
@@ -1541,10 +1548,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112501603</v>
+        <v>112501570</v>
       </c>
       <c r="B10" t="n">
-        <v>90857</v>
+        <v>90830</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1557,21 +1564,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5448</v>
+        <v>2059</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1581,10 +1588,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>555463</v>
+        <v>555402</v>
       </c>
       <c r="R10" t="n">
-        <v>7011534</v>
+        <v>7010819</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1647,10 +1654,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112501568</v>
+        <v>112501617</v>
       </c>
       <c r="B11" t="n">
-        <v>90826</v>
+        <v>90808</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1659,25 +1666,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4366</v>
+        <v>4362</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1687,10 +1694,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>555402</v>
+        <v>555555</v>
       </c>
       <c r="R11" t="n">
-        <v>7010819</v>
+        <v>7011181</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1753,10 +1760,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112501575</v>
+        <v>112501599</v>
       </c>
       <c r="B12" t="n">
-        <v>77650</v>
+        <v>90814</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1765,25 +1772,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>4364</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1793,10 +1800,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>555531</v>
+        <v>555526</v>
       </c>
       <c r="R12" t="n">
-        <v>7011013</v>
+        <v>7010771</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1839,16 +1846,6 @@
       </c>
       <c r="AG12" t="b">
         <v>0</v>
-      </c>
-      <c r="AL12" t="inlineStr">
-        <is>
-          <t>Tall</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>Tall</t>
-        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
@@ -1869,10 +1866,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112501571</v>
+        <v>112501605</v>
       </c>
       <c r="B13" t="n">
-        <v>90860</v>
+        <v>90808</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1881,25 +1878,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>232140</v>
+        <v>4362</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tajgataggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Phellodon secretus</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Niemelä &amp; Kinnunen</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1909,10 +1906,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>555517</v>
+        <v>555511</v>
       </c>
       <c r="R13" t="n">
-        <v>7010761</v>
+        <v>7011505</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1975,10 +1972,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112501547</v>
+        <v>112501566</v>
       </c>
       <c r="B14" t="n">
-        <v>90826</v>
+        <v>90857</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1987,25 +1984,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4366</v>
+        <v>5448</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2015,10 +2012,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>555417</v>
+        <v>555402</v>
       </c>
       <c r="R14" t="n">
-        <v>7011060</v>
+        <v>7010819</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2081,10 +2078,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112501609</v>
+        <v>112501600</v>
       </c>
       <c r="B15" t="n">
-        <v>83086</v>
+        <v>90806</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2097,21 +2094,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5589</v>
+        <v>4361</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2121,10 +2118,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>555567</v>
+        <v>555526</v>
       </c>
       <c r="R15" t="n">
-        <v>7011182</v>
+        <v>7010771</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2187,10 +2184,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112501552</v>
+        <v>112501585</v>
       </c>
       <c r="B16" t="n">
-        <v>90806</v>
+        <v>73834</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2203,21 +2200,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4361</v>
+        <v>6440</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2227,10 +2224,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>555535</v>
+        <v>555459</v>
       </c>
       <c r="R16" t="n">
-        <v>7011455</v>
+        <v>7011382</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2293,10 +2290,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112501600</v>
+        <v>112501571</v>
       </c>
       <c r="B17" t="n">
-        <v>90806</v>
+        <v>90860</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2305,25 +2302,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4361</v>
+        <v>232140</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Tajgataggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Phellodon secretus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Niemelä &amp; Kinnunen</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2333,10 +2330,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>555526</v>
+        <v>555517</v>
       </c>
       <c r="R17" t="n">
-        <v>7010771</v>
+        <v>7010761</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2399,10 +2396,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112501567</v>
+        <v>112501592</v>
       </c>
       <c r="B18" t="n">
-        <v>90806</v>
+        <v>90826</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2411,25 +2408,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4361</v>
+        <v>4366</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2439,10 +2436,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>555402</v>
+        <v>555577</v>
       </c>
       <c r="R18" t="n">
-        <v>7010819</v>
+        <v>7011248</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2505,10 +2502,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112501566</v>
+        <v>112501604</v>
       </c>
       <c r="B19" t="n">
-        <v>90857</v>
+        <v>86459</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2517,25 +2514,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5448</v>
+        <v>816</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Smultronkantarell</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Aphroditeola olida</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Quél.) Redhead &amp; Manfr.Binder</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2545,10 +2542,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>555402</v>
+        <v>555463</v>
       </c>
       <c r="R19" t="n">
-        <v>7010819</v>
+        <v>7011534</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2611,10 +2608,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112501576</v>
+        <v>112501623</v>
       </c>
       <c r="B20" t="n">
-        <v>90800</v>
+        <v>90814</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2623,25 +2620,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3100</v>
+        <v>4364</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2651,10 +2648,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>555505</v>
+        <v>555492</v>
       </c>
       <c r="R20" t="n">
-        <v>7011480</v>
+        <v>7011449</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2687,11 +2684,6 @@
       <c r="AA20" t="inlineStr">
         <is>
           <t>2023-10-02</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>Gammalt exemplar. Mest troligt talltaggsvamp men grantaggsvamp kan inte uteslutas.</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2722,10 +2714,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112501604</v>
+        <v>112501581</v>
       </c>
       <c r="B21" t="n">
-        <v>86459</v>
+        <v>90826</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2734,25 +2726,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>816</v>
+        <v>4366</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Smultronkantarell</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Aphroditeola olida</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Quél.) Redhead &amp; Manfr.Binder</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2762,10 +2754,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>555463</v>
+        <v>555462</v>
       </c>
       <c r="R21" t="n">
-        <v>7011534</v>
+        <v>7011424</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2828,10 +2820,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112501582</v>
+        <v>112501584</v>
       </c>
       <c r="B22" t="n">
-        <v>78713</v>
+        <v>56430</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2844,34 +2836,42 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Mossahässan/Färsån, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>555574</v>
+        <v>555459</v>
       </c>
       <c r="R22" t="n">
-        <v>7011068</v>
+        <v>7011382</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2906,6 +2906,11 @@
           <t>2023-10-02</t>
         </is>
       </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Hack</t>
+        </is>
+      </c>
       <c r="AD22" t="b">
         <v>0</v>
       </c>
@@ -2914,16 +2919,6 @@
       </c>
       <c r="AG22" t="b">
         <v>0</v>
-      </c>
-      <c r="AL22" t="inlineStr">
-        <is>
-          <t>Sälg</t>
-        </is>
-      </c>
-      <c r="AO22" t="inlineStr">
-        <is>
-          <t>Sälg</t>
-        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
@@ -2944,10 +2939,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112501585</v>
+        <v>112501576</v>
       </c>
       <c r="B23" t="n">
-        <v>73834</v>
+        <v>90800</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2960,21 +2955,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6440</v>
+        <v>3100</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -2984,10 +2979,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>555459</v>
+        <v>555505</v>
       </c>
       <c r="R23" t="n">
-        <v>7011382</v>
+        <v>7011480</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3020,6 +3015,11 @@
       <c r="AA23" t="inlineStr">
         <is>
           <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>Gammalt exemplar. Mest troligt talltaggsvamp men grantaggsvamp kan inte uteslutas.</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3050,7 +3050,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112501592</v>
+        <v>112501568</v>
       </c>
       <c r="B24" t="n">
         <v>90826</v>
@@ -3090,10 +3090,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>555577</v>
+        <v>555402</v>
       </c>
       <c r="R24" t="n">
-        <v>7011248</v>
+        <v>7010819</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3156,7 +3156,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112501594</v>
+        <v>112501563</v>
       </c>
       <c r="B25" t="n">
         <v>90814</v>
@@ -3196,10 +3196,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>555550</v>
+        <v>555474</v>
       </c>
       <c r="R25" t="n">
-        <v>7011132</v>
+        <v>7011604</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3262,10 +3262,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112501569</v>
+        <v>112501598</v>
       </c>
       <c r="B26" t="n">
-        <v>90808</v>
+        <v>90806</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3278,21 +3278,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>4362</v>
+        <v>4361</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3302,10 +3302,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>555402</v>
+        <v>555503</v>
       </c>
       <c r="R26" t="n">
-        <v>7010819</v>
+        <v>7011445</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3368,10 +3368,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112501563</v>
+        <v>112501552</v>
       </c>
       <c r="B27" t="n">
-        <v>90814</v>
+        <v>90806</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3380,25 +3380,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>4364</v>
+        <v>4361</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3408,10 +3408,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>555474</v>
+        <v>555535</v>
       </c>
       <c r="R27" t="n">
-        <v>7011604</v>
+        <v>7011455</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3474,10 +3474,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112501608</v>
+        <v>112501625</v>
       </c>
       <c r="B28" t="n">
-        <v>90814</v>
+        <v>90808</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3486,25 +3486,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4364</v>
+        <v>4362</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3514,10 +3514,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>555535</v>
+        <v>555492</v>
       </c>
       <c r="R28" t="n">
-        <v>7011452</v>
+        <v>7011449</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3580,10 +3580,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112501613</v>
+        <v>112501594</v>
       </c>
       <c r="B29" t="n">
-        <v>78647</v>
+        <v>90814</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3596,37 +3596,34 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6456</v>
+        <v>4364</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>Mossahässan/Färsån, Jmt</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>555456</v>
+        <v>555550</v>
       </c>
       <c r="R29" t="n">
-        <v>7011410</v>
+        <v>7011132</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3667,24 +3664,8 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
-      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ29" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK29" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AO29" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
       </c>
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
@@ -3705,10 +3686,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112501550</v>
+        <v>112501612</v>
       </c>
       <c r="B30" t="n">
-        <v>90814</v>
+        <v>88180</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3717,25 +3698,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>4364</v>
+        <v>6276</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3745,10 +3726,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>555570</v>
+        <v>555509</v>
       </c>
       <c r="R30" t="n">
-        <v>7010957</v>
+        <v>7010772</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3811,10 +3792,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112501607</v>
+        <v>112501587</v>
       </c>
       <c r="B31" t="n">
-        <v>90858</v>
+        <v>90857</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3827,21 +3808,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5449</v>
+        <v>5448</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3851,10 +3832,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>555513</v>
+        <v>555573</v>
       </c>
       <c r="R31" t="n">
-        <v>7010763</v>
+        <v>7010946</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3917,10 +3898,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112501561</v>
+        <v>112501567</v>
       </c>
       <c r="B32" t="n">
-        <v>88637</v>
+        <v>90806</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -3933,21 +3914,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1962</v>
+        <v>4361</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -3957,10 +3938,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>555535</v>
+        <v>555402</v>
       </c>
       <c r="R32" t="n">
-        <v>7011173</v>
+        <v>7010819</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4023,10 +4004,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112501581</v>
+        <v>112501564</v>
       </c>
       <c r="B33" t="n">
-        <v>90826</v>
+        <v>90837</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4035,25 +4016,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>4366</v>
+        <v>5966</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4063,10 +4044,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>555462</v>
+        <v>555424</v>
       </c>
       <c r="R33" t="n">
-        <v>7011424</v>
+        <v>7011077</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4129,10 +4110,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112501586</v>
+        <v>112501553</v>
       </c>
       <c r="B34" t="n">
-        <v>90814</v>
+        <v>90799</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4141,25 +4122,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4364</v>
+        <v>1968</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4169,10 +4150,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>555459</v>
+        <v>555535</v>
       </c>
       <c r="R34" t="n">
-        <v>7011101</v>
+        <v>7011448</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4235,7 +4216,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112501599</v>
+        <v>112501586</v>
       </c>
       <c r="B35" t="n">
         <v>90814</v>
@@ -4275,10 +4256,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>555526</v>
+        <v>555459</v>
       </c>
       <c r="R35" t="n">
-        <v>7010771</v>
+        <v>7011101</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4341,10 +4322,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112501587</v>
+        <v>112501547</v>
       </c>
       <c r="B36" t="n">
-        <v>90857</v>
+        <v>90826</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4353,25 +4334,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>5448</v>
+        <v>4366</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4381,10 +4362,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>555573</v>
+        <v>555417</v>
       </c>
       <c r="R36" t="n">
-        <v>7010946</v>
+        <v>7011060</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4447,10 +4428,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112501553</v>
+        <v>112501596</v>
       </c>
       <c r="B37" t="n">
-        <v>90799</v>
+        <v>90837</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4463,21 +4444,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1968</v>
+        <v>5966</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4487,10 +4468,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>555535</v>
+        <v>555402</v>
       </c>
       <c r="R37" t="n">
-        <v>7011448</v>
+        <v>7011030</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4553,10 +4534,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112501564</v>
+        <v>112501588</v>
       </c>
       <c r="B38" t="n">
-        <v>90837</v>
+        <v>78242</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4569,21 +4550,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>5966</v>
+        <v>6453</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4593,10 +4574,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>555424</v>
+        <v>555451</v>
       </c>
       <c r="R38" t="n">
-        <v>7011077</v>
+        <v>7011470</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4659,7 +4640,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112501617</v>
+        <v>112501565</v>
       </c>
       <c r="B39" t="n">
         <v>90808</v>
@@ -4699,10 +4680,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>555555</v>
+        <v>555424</v>
       </c>
       <c r="R39" t="n">
-        <v>7011181</v>
+        <v>7011077</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4765,10 +4746,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112501570</v>
+        <v>112501591</v>
       </c>
       <c r="B40" t="n">
-        <v>90830</v>
+        <v>88180</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4777,25 +4758,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2059</v>
+        <v>6276</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4805,10 +4786,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>555402</v>
+        <v>555526</v>
       </c>
       <c r="R40" t="n">
-        <v>7010819</v>
+        <v>7010762</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4871,10 +4852,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>112501625</v>
+        <v>112501613</v>
       </c>
       <c r="B41" t="n">
-        <v>90808</v>
+        <v>78647</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -4883,38 +4864,41 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>4362</v>
+        <v>6456</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
           <t>Mossahässan/Färsån, Jmt</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>555492</v>
+        <v>555456</v>
       </c>
       <c r="R41" t="n">
-        <v>7011449</v>
+        <v>7011410</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -4955,8 +4939,24 @@
       <c r="AE41" t="b">
         <v>0</v>
       </c>
+      <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ41" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK41" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AO41" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
       </c>
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
@@ -4977,10 +4977,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>112501583</v>
+        <v>112501608</v>
       </c>
       <c r="B42" t="n">
-        <v>90830</v>
+        <v>90814</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -4989,25 +4989,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>2059</v>
+        <v>4364</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>555598</v>
+        <v>555535</v>
       </c>
       <c r="R42" t="n">
-        <v>7010805</v>
+        <v>7011452</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5083,10 +5083,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>112501565</v>
+        <v>112501609</v>
       </c>
       <c r="B43" t="n">
-        <v>90808</v>
+        <v>83086</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5099,21 +5099,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>4362</v>
+        <v>5589</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5123,10 +5123,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>555424</v>
+        <v>555567</v>
       </c>
       <c r="R43" t="n">
-        <v>7011077</v>
+        <v>7011182</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5189,10 +5189,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>112501623</v>
+        <v>112501561</v>
       </c>
       <c r="B44" t="n">
-        <v>90814</v>
+        <v>88637</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5201,25 +5201,25 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>4364</v>
+        <v>1962</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5229,10 +5229,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>555492</v>
+        <v>555535</v>
       </c>
       <c r="R44" t="n">
-        <v>7011449</v>
+        <v>7011173</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>

--- a/artfynd/A 25300-2023.xlsx
+++ b/artfynd/A 25300-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112501550</v>
+        <v>112501561</v>
       </c>
       <c r="B2" t="n">
-        <v>90814</v>
+        <v>88637</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4364</v>
+        <v>1962</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>555570</v>
+        <v>555535</v>
       </c>
       <c r="R2" t="n">
-        <v>7010957</v>
+        <v>7011173</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -786,10 +786,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112501603</v>
+        <v>112501604</v>
       </c>
       <c r="B3" t="n">
-        <v>90857</v>
+        <v>86459</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -798,25 +798,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5448</v>
+        <v>816</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Smultronkantarell</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Aphroditeola olida</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Quél.) Redhead &amp; Manfr.Binder</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -892,10 +892,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112501607</v>
+        <v>112501567</v>
       </c>
       <c r="B4" t="n">
-        <v>90858</v>
+        <v>90806</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -908,21 +908,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5449</v>
+        <v>4361</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -932,10 +932,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>555513</v>
+        <v>555402</v>
       </c>
       <c r="R4" t="n">
-        <v>7010763</v>
+        <v>7010819</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -998,10 +998,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112501583</v>
+        <v>112501603</v>
       </c>
       <c r="B5" t="n">
-        <v>90830</v>
+        <v>90857</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1014,21 +1014,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2059</v>
+        <v>5448</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1038,10 +1038,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>555598</v>
+        <v>555463</v>
       </c>
       <c r="R5" t="n">
-        <v>7010805</v>
+        <v>7011534</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1104,7 +1104,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112501569</v>
+        <v>112501605</v>
       </c>
       <c r="B6" t="n">
         <v>90808</v>
@@ -1144,10 +1144,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>555402</v>
+        <v>555511</v>
       </c>
       <c r="R6" t="n">
-        <v>7010819</v>
+        <v>7011505</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1210,10 +1210,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112501614</v>
+        <v>112501588</v>
       </c>
       <c r="B7" t="n">
-        <v>90837</v>
+        <v>78242</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1226,21 +1226,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5966</v>
+        <v>6453</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1250,10 +1250,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>555528</v>
+        <v>555451</v>
       </c>
       <c r="R7" t="n">
-        <v>7011175</v>
+        <v>7011470</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1316,10 +1316,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112501582</v>
+        <v>112501623</v>
       </c>
       <c r="B8" t="n">
-        <v>78713</v>
+        <v>90814</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1328,25 +1328,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6458</v>
+        <v>4364</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1356,10 +1356,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>555574</v>
+        <v>555492</v>
       </c>
       <c r="R8" t="n">
-        <v>7011068</v>
+        <v>7011449</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1402,16 +1402,6 @@
       </c>
       <c r="AG8" t="b">
         <v>0</v>
-      </c>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>Sälg</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>Sälg</t>
-        </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
@@ -1432,10 +1422,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112501575</v>
+        <v>112501566</v>
       </c>
       <c r="B9" t="n">
-        <v>77650</v>
+        <v>90857</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1448,21 +1438,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>5448</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1472,10 +1462,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>555531</v>
+        <v>555402</v>
       </c>
       <c r="R9" t="n">
-        <v>7011013</v>
+        <v>7010819</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1518,16 +1508,6 @@
       </c>
       <c r="AG9" t="b">
         <v>0</v>
-      </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>Tall</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>Tall</t>
-        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
@@ -1548,10 +1528,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112501570</v>
+        <v>112501614</v>
       </c>
       <c r="B10" t="n">
-        <v>90830</v>
+        <v>90837</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1564,21 +1544,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2059</v>
+        <v>5966</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1588,10 +1568,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>555402</v>
+        <v>555528</v>
       </c>
       <c r="R10" t="n">
-        <v>7010819</v>
+        <v>7011175</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1654,10 +1634,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112501617</v>
+        <v>112501583</v>
       </c>
       <c r="B11" t="n">
-        <v>90808</v>
+        <v>90830</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1670,21 +1650,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1694,10 +1674,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>555555</v>
+        <v>555598</v>
       </c>
       <c r="R11" t="n">
-        <v>7011181</v>
+        <v>7010805</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1760,10 +1740,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112501599</v>
+        <v>112501569</v>
       </c>
       <c r="B12" t="n">
-        <v>90814</v>
+        <v>90808</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1772,25 +1752,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4364</v>
+        <v>4362</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1800,10 +1780,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>555526</v>
+        <v>555402</v>
       </c>
       <c r="R12" t="n">
-        <v>7010771</v>
+        <v>7010819</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1866,10 +1846,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112501605</v>
+        <v>112501608</v>
       </c>
       <c r="B13" t="n">
-        <v>90808</v>
+        <v>90814</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1878,25 +1858,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4362</v>
+        <v>4364</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1906,10 +1886,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>555511</v>
+        <v>555535</v>
       </c>
       <c r="R13" t="n">
-        <v>7011505</v>
+        <v>7011452</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1972,7 +1952,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112501566</v>
+        <v>112501587</v>
       </c>
       <c r="B14" t="n">
         <v>90857</v>
@@ -2012,10 +1992,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>555402</v>
+        <v>555573</v>
       </c>
       <c r="R14" t="n">
-        <v>7010819</v>
+        <v>7010946</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2078,10 +2058,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112501600</v>
+        <v>112501564</v>
       </c>
       <c r="B15" t="n">
-        <v>90806</v>
+        <v>90837</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2094,21 +2074,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4361</v>
+        <v>5966</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2118,10 +2098,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>555526</v>
+        <v>555424</v>
       </c>
       <c r="R15" t="n">
-        <v>7010771</v>
+        <v>7011077</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2184,10 +2164,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112501585</v>
+        <v>112501571</v>
       </c>
       <c r="B16" t="n">
-        <v>73834</v>
+        <v>90860</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2196,25 +2176,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6440</v>
+        <v>232140</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Tajgataggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Phellodon secretus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>Niemelä &amp; Kinnunen</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2224,10 +2204,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>555459</v>
+        <v>555517</v>
       </c>
       <c r="R16" t="n">
-        <v>7011382</v>
+        <v>7010761</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2290,10 +2270,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112501571</v>
+        <v>112501599</v>
       </c>
       <c r="B17" t="n">
-        <v>90860</v>
+        <v>90814</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2302,25 +2282,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>232140</v>
+        <v>4364</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tajgataggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Phellodon secretus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Niemelä &amp; Kinnunen</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2330,10 +2310,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>555517</v>
+        <v>555526</v>
       </c>
       <c r="R17" t="n">
-        <v>7010761</v>
+        <v>7010771</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2396,10 +2376,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112501592</v>
+        <v>112501565</v>
       </c>
       <c r="B18" t="n">
-        <v>90826</v>
+        <v>90808</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2408,25 +2388,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4366</v>
+        <v>4362</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2436,10 +2416,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>555577</v>
+        <v>555424</v>
       </c>
       <c r="R18" t="n">
-        <v>7011248</v>
+        <v>7011077</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2502,10 +2482,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112501604</v>
+        <v>112501596</v>
       </c>
       <c r="B19" t="n">
-        <v>86459</v>
+        <v>90837</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2514,25 +2494,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>816</v>
+        <v>5966</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Smultronkantarell</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Aphroditeola olida</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Quél.) Redhead &amp; Manfr.Binder</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2542,10 +2522,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>555463</v>
+        <v>555402</v>
       </c>
       <c r="R19" t="n">
-        <v>7011534</v>
+        <v>7011030</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2608,10 +2588,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112501623</v>
+        <v>112501575</v>
       </c>
       <c r="B20" t="n">
-        <v>90814</v>
+        <v>77650</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2620,25 +2600,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2648,10 +2628,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>555492</v>
+        <v>555531</v>
       </c>
       <c r="R20" t="n">
-        <v>7011449</v>
+        <v>7011013</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2694,6 +2674,16 @@
       </c>
       <c r="AG20" t="b">
         <v>0</v>
+      </c>
+      <c r="AL20" t="inlineStr">
+        <is>
+          <t>Tall</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>Tall</t>
+        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
@@ -2714,10 +2704,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112501581</v>
+        <v>112501584</v>
       </c>
       <c r="B21" t="n">
-        <v>90826</v>
+        <v>56430</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2726,38 +2716,46 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4366</v>
+        <v>100109</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Mossahässan/Färsån, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>555462</v>
+        <v>555459</v>
       </c>
       <c r="R21" t="n">
-        <v>7011424</v>
+        <v>7011382</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2790,6 +2788,11 @@
       <c r="AA21" t="inlineStr">
         <is>
           <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>Hack</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2820,10 +2823,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112501584</v>
+        <v>112501617</v>
       </c>
       <c r="B22" t="n">
-        <v>56430</v>
+        <v>90808</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2836,42 +2839,34 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100109</v>
+        <v>4362</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Mossahässan/Färsån, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>555459</v>
+        <v>555555</v>
       </c>
       <c r="R22" t="n">
-        <v>7011382</v>
+        <v>7011181</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2904,11 +2899,6 @@
       <c r="AA22" t="inlineStr">
         <is>
           <t>2023-10-02</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>Hack</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2939,10 +2929,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112501576</v>
+        <v>112501625</v>
       </c>
       <c r="B23" t="n">
-        <v>90800</v>
+        <v>90808</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2955,21 +2945,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -2979,10 +2969,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>555505</v>
+        <v>555492</v>
       </c>
       <c r="R23" t="n">
-        <v>7011480</v>
+        <v>7011449</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3015,11 +3005,6 @@
       <c r="AA23" t="inlineStr">
         <is>
           <t>2023-10-02</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>Gammalt exemplar. Mest troligt talltaggsvamp men grantaggsvamp kan inte uteslutas.</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3050,10 +3035,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112501568</v>
+        <v>112501612</v>
       </c>
       <c r="B24" t="n">
-        <v>90826</v>
+        <v>88180</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3062,25 +3047,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4366</v>
+        <v>6276</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3090,10 +3075,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>555402</v>
+        <v>555509</v>
       </c>
       <c r="R24" t="n">
-        <v>7010819</v>
+        <v>7010772</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3156,10 +3141,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112501563</v>
+        <v>112501613</v>
       </c>
       <c r="B25" t="n">
-        <v>90814</v>
+        <v>78647</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3172,34 +3157,37 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>4364</v>
+        <v>6456</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>Mossahässan/Färsån, Jmt</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>555474</v>
+        <v>555456</v>
       </c>
       <c r="R25" t="n">
-        <v>7011604</v>
+        <v>7011410</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3240,8 +3228,24 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
+      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
@@ -3262,10 +3266,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112501598</v>
+        <v>112501553</v>
       </c>
       <c r="B26" t="n">
-        <v>90806</v>
+        <v>90799</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3278,21 +3282,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>4361</v>
+        <v>1968</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3302,10 +3306,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>555503</v>
+        <v>555535</v>
       </c>
       <c r="R26" t="n">
-        <v>7011445</v>
+        <v>7011448</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3368,10 +3372,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112501552</v>
+        <v>112501582</v>
       </c>
       <c r="B27" t="n">
-        <v>90806</v>
+        <v>78713</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3384,21 +3388,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>4361</v>
+        <v>6458</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3408,10 +3412,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>555535</v>
+        <v>555574</v>
       </c>
       <c r="R27" t="n">
-        <v>7011455</v>
+        <v>7011068</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3454,6 +3458,16 @@
       </c>
       <c r="AG27" t="b">
         <v>0</v>
+      </c>
+      <c r="AL27" t="inlineStr">
+        <is>
+          <t>Sälg</t>
+        </is>
+      </c>
+      <c r="AO27" t="inlineStr">
+        <is>
+          <t>Sälg</t>
+        </is>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
@@ -3474,10 +3488,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112501625</v>
+        <v>112501563</v>
       </c>
       <c r="B28" t="n">
-        <v>90808</v>
+        <v>90814</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3486,25 +3500,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4362</v>
+        <v>4364</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3514,10 +3528,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>555492</v>
+        <v>555474</v>
       </c>
       <c r="R28" t="n">
-        <v>7011449</v>
+        <v>7011604</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3580,10 +3594,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112501594</v>
+        <v>112501585</v>
       </c>
       <c r="B29" t="n">
-        <v>90814</v>
+        <v>73834</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3592,25 +3606,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>4364</v>
+        <v>6440</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3620,10 +3634,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>555550</v>
+        <v>555459</v>
       </c>
       <c r="R29" t="n">
-        <v>7011132</v>
+        <v>7011382</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3686,10 +3700,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112501612</v>
+        <v>112501570</v>
       </c>
       <c r="B30" t="n">
-        <v>88180</v>
+        <v>90830</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3698,25 +3712,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6276</v>
+        <v>2059</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3726,10 +3740,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>555509</v>
+        <v>555402</v>
       </c>
       <c r="R30" t="n">
-        <v>7010772</v>
+        <v>7010819</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3792,10 +3806,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112501587</v>
+        <v>112501609</v>
       </c>
       <c r="B31" t="n">
-        <v>90857</v>
+        <v>83086</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3808,21 +3822,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5448</v>
+        <v>5589</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3832,10 +3846,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>555573</v>
+        <v>555567</v>
       </c>
       <c r="R31" t="n">
-        <v>7010946</v>
+        <v>7011182</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3898,10 +3912,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112501567</v>
+        <v>112501592</v>
       </c>
       <c r="B32" t="n">
-        <v>90806</v>
+        <v>90826</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -3910,25 +3924,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4361</v>
+        <v>4366</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -3938,10 +3952,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>555402</v>
+        <v>555577</v>
       </c>
       <c r="R32" t="n">
-        <v>7010819</v>
+        <v>7011248</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4004,10 +4018,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112501564</v>
+        <v>112501598</v>
       </c>
       <c r="B33" t="n">
-        <v>90837</v>
+        <v>90806</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4020,21 +4034,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5966</v>
+        <v>4361</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4044,10 +4058,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>555424</v>
+        <v>555503</v>
       </c>
       <c r="R33" t="n">
-        <v>7011077</v>
+        <v>7011445</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4110,10 +4124,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112501553</v>
+        <v>112501581</v>
       </c>
       <c r="B34" t="n">
-        <v>90799</v>
+        <v>90826</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4122,25 +4136,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1968</v>
+        <v>4366</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4150,10 +4164,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>555535</v>
+        <v>555462</v>
       </c>
       <c r="R34" t="n">
-        <v>7011448</v>
+        <v>7011424</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4216,10 +4230,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112501586</v>
+        <v>112501600</v>
       </c>
       <c r="B35" t="n">
-        <v>90814</v>
+        <v>90806</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4228,25 +4242,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>4364</v>
+        <v>4361</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4256,10 +4270,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>555459</v>
+        <v>555526</v>
       </c>
       <c r="R35" t="n">
-        <v>7011101</v>
+        <v>7010771</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4322,10 +4336,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112501547</v>
+        <v>112501550</v>
       </c>
       <c r="B36" t="n">
-        <v>90826</v>
+        <v>90814</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4338,21 +4352,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>4366</v>
+        <v>4364</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4362,10 +4376,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>555417</v>
+        <v>555570</v>
       </c>
       <c r="R36" t="n">
-        <v>7011060</v>
+        <v>7010957</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4428,10 +4442,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112501596</v>
+        <v>112501576</v>
       </c>
       <c r="B37" t="n">
-        <v>90837</v>
+        <v>90800</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4444,21 +4458,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>5966</v>
+        <v>3100</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4468,10 +4482,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>555402</v>
+        <v>555505</v>
       </c>
       <c r="R37" t="n">
-        <v>7011030</v>
+        <v>7011480</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4504,6 +4518,11 @@
       <c r="AA37" t="inlineStr">
         <is>
           <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>Gammalt exemplar. Mest troligt talltaggsvamp men grantaggsvamp kan inte uteslutas.</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4534,10 +4553,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112501588</v>
+        <v>112501568</v>
       </c>
       <c r="B38" t="n">
-        <v>78242</v>
+        <v>90826</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4546,25 +4565,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6453</v>
+        <v>4366</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4574,10 +4593,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>555451</v>
+        <v>555402</v>
       </c>
       <c r="R38" t="n">
-        <v>7011470</v>
+        <v>7010819</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4640,10 +4659,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112501565</v>
+        <v>112501607</v>
       </c>
       <c r="B39" t="n">
-        <v>90808</v>
+        <v>90858</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4656,21 +4675,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>4362</v>
+        <v>5449</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4680,10 +4699,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>555424</v>
+        <v>555513</v>
       </c>
       <c r="R39" t="n">
-        <v>7011077</v>
+        <v>7010763</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4746,10 +4765,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112501591</v>
+        <v>112501552</v>
       </c>
       <c r="B40" t="n">
-        <v>88180</v>
+        <v>90806</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4758,25 +4777,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6276</v>
+        <v>4361</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4786,10 +4805,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>555526</v>
+        <v>555535</v>
       </c>
       <c r="R40" t="n">
-        <v>7010762</v>
+        <v>7011455</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4852,10 +4871,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>112501613</v>
+        <v>112501591</v>
       </c>
       <c r="B41" t="n">
-        <v>78647</v>
+        <v>88180</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -4864,41 +4883,38 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6456</v>
+        <v>6276</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
           <t>Mossahässan/Färsån, Jmt</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>555456</v>
+        <v>555526</v>
       </c>
       <c r="R41" t="n">
-        <v>7011410</v>
+        <v>7010762</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -4939,24 +4955,8 @@
       <c r="AE41" t="b">
         <v>0</v>
       </c>
-      <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ41" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK41" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AO41" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
       </c>
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
@@ -4977,10 +4977,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>112501608</v>
+        <v>112501547</v>
       </c>
       <c r="B42" t="n">
-        <v>90814</v>
+        <v>90826</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -4993,21 +4993,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>4364</v>
+        <v>4366</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>555535</v>
+        <v>555417</v>
       </c>
       <c r="R42" t="n">
-        <v>7011452</v>
+        <v>7011060</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5083,10 +5083,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>112501609</v>
+        <v>112501594</v>
       </c>
       <c r="B43" t="n">
-        <v>83086</v>
+        <v>90814</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5095,25 +5095,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>5589</v>
+        <v>4364</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5123,10 +5123,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>555567</v>
+        <v>555550</v>
       </c>
       <c r="R43" t="n">
-        <v>7011182</v>
+        <v>7011132</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5189,10 +5189,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>112501561</v>
+        <v>112501586</v>
       </c>
       <c r="B44" t="n">
-        <v>88637</v>
+        <v>90814</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5201,25 +5201,25 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1962</v>
+        <v>4364</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5229,10 +5229,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>555535</v>
+        <v>555459</v>
       </c>
       <c r="R44" t="n">
-        <v>7011173</v>
+        <v>7011101</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>

--- a/artfynd/A 25300-2023.xlsx
+++ b/artfynd/A 25300-2023.xlsx
@@ -1528,10 +1528,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112501614</v>
+        <v>112501583</v>
       </c>
       <c r="B10" t="n">
-        <v>90837</v>
+        <v>90830</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1544,21 +1544,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5966</v>
+        <v>2059</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1568,10 +1568,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>555528</v>
+        <v>555598</v>
       </c>
       <c r="R10" t="n">
-        <v>7011175</v>
+        <v>7010805</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1634,10 +1634,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112501583</v>
+        <v>112501569</v>
       </c>
       <c r="B11" t="n">
-        <v>90830</v>
+        <v>90808</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1650,21 +1650,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1674,10 +1674,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>555598</v>
+        <v>555402</v>
       </c>
       <c r="R11" t="n">
-        <v>7010805</v>
+        <v>7010819</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1740,10 +1740,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112501569</v>
+        <v>112501608</v>
       </c>
       <c r="B12" t="n">
-        <v>90808</v>
+        <v>90814</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1752,25 +1752,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4362</v>
+        <v>4364</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1780,10 +1780,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>555402</v>
+        <v>555535</v>
       </c>
       <c r="R12" t="n">
-        <v>7010819</v>
+        <v>7011452</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1846,10 +1846,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112501608</v>
+        <v>112501614</v>
       </c>
       <c r="B13" t="n">
-        <v>90814</v>
+        <v>90837</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1858,25 +1858,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4364</v>
+        <v>5966</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1886,10 +1886,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>555535</v>
+        <v>555528</v>
       </c>
       <c r="R13" t="n">
-        <v>7011452</v>
+        <v>7011175</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2376,7 +2376,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112501565</v>
+        <v>112501617</v>
       </c>
       <c r="B18" t="n">
         <v>90808</v>
@@ -2416,10 +2416,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>555424</v>
+        <v>555555</v>
       </c>
       <c r="R18" t="n">
-        <v>7011077</v>
+        <v>7011181</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2482,10 +2482,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112501596</v>
+        <v>112501565</v>
       </c>
       <c r="B19" t="n">
-        <v>90837</v>
+        <v>90808</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2498,21 +2498,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5966</v>
+        <v>4362</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2522,10 +2522,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>555402</v>
+        <v>555424</v>
       </c>
       <c r="R19" t="n">
-        <v>7011030</v>
+        <v>7011077</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2588,10 +2588,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112501575</v>
+        <v>112501596</v>
       </c>
       <c r="B20" t="n">
-        <v>77650</v>
+        <v>90837</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2604,21 +2604,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>5966</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2628,10 +2628,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>555531</v>
+        <v>555402</v>
       </c>
       <c r="R20" t="n">
-        <v>7011013</v>
+        <v>7011030</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2674,16 +2674,6 @@
       </c>
       <c r="AG20" t="b">
         <v>0</v>
-      </c>
-      <c r="AL20" t="inlineStr">
-        <is>
-          <t>Tall</t>
-        </is>
-      </c>
-      <c r="AO20" t="inlineStr">
-        <is>
-          <t>Tall</t>
-        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
@@ -2704,10 +2694,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112501584</v>
+        <v>112501575</v>
       </c>
       <c r="B21" t="n">
-        <v>56430</v>
+        <v>77650</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2720,42 +2710,34 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Mossahässan/Färsån, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>555459</v>
+        <v>555531</v>
       </c>
       <c r="R21" t="n">
-        <v>7011382</v>
+        <v>7011013</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2790,11 +2772,6 @@
           <t>2023-10-02</t>
         </is>
       </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>Hack</t>
-        </is>
-      </c>
       <c r="AD21" t="b">
         <v>0</v>
       </c>
@@ -2803,6 +2780,16 @@
       </c>
       <c r="AG21" t="b">
         <v>0</v>
+      </c>
+      <c r="AL21" t="inlineStr">
+        <is>
+          <t>Tall</t>
+        </is>
+      </c>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>Tall</t>
+        </is>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
@@ -2823,10 +2810,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112501617</v>
+        <v>112501584</v>
       </c>
       <c r="B22" t="n">
-        <v>90808</v>
+        <v>56430</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2839,34 +2826,42 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4362</v>
+        <v>100109</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Mossahässan/Färsån, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>555555</v>
+        <v>555459</v>
       </c>
       <c r="R22" t="n">
-        <v>7011181</v>
+        <v>7011382</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2899,6 +2894,11 @@
       <c r="AA22" t="inlineStr">
         <is>
           <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Hack</t>
         </is>
       </c>
       <c r="AD22" t="b">
